--- a/target/classes/template.xlsx
+++ b/target/classes/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\TaiLieuVT\workspace\SpringWeb\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F4A2B9-1CB1-4DD9-91FA-A497A7321684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB547CB3-A9F0-4059-B883-CF22D40262BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F8A1EFE-CA2B-4315-96B1-18255803D367}"/>
   </bookViews>
@@ -86,7 +86,7 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(items="persons" var="e" lastCell="E4")
-jx:if(condition="e.salary &lt; 20000", lastCell="E4", areas=["B4:E4","B7:E7"])
+jx:if(condition="e.name == `B`", lastCell="E4", areas=["B4:E4","B7:E7"])
 </t>
         </r>
       </text>
@@ -567,7 +567,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
